--- a/data/submodel_residential/_EXCELFILES/SANSOM_residential_gas_hourly_shape_hp.xlsx
+++ b/data/submodel_residential/_EXCELFILES/SANSOM_residential_gas_hourly_shape_hp.xlsx
@@ -477,11 +477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179133056"/>
-        <c:axId val="189113088"/>
+        <c:axId val="149775104"/>
+        <c:axId val="149777408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179133056"/>
+        <c:axId val="149775104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189113088"/>
+        <c:crossAx val="149777408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -498,7 +498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189113088"/>
+        <c:axId val="149777408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,14 +509,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179133056"/>
+        <c:crossAx val="149775104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1000,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X5"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,297 +1083,223 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.0178117048346056</v>
+        <v>1.0126582278481013</v>
       </c>
       <c r="B2">
-        <v>0.76335877862595425</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="C2">
-        <v>0.5089058524173028</v>
+        <v>0.50632911392405067</v>
       </c>
       <c r="D2">
-        <v>0.5089058524173028</v>
+        <v>0.50632911392405067</v>
       </c>
       <c r="E2">
-        <v>0.5089058524173028</v>
+        <v>0.50632911392405067</v>
       </c>
       <c r="F2">
-        <v>2.2900763358778629</v>
+        <v>2.278481012658228</v>
       </c>
       <c r="G2">
-        <v>4.8346055979643765</v>
+        <v>5.0632911392405067</v>
       </c>
       <c r="H2">
-        <v>7.6335877862595423</v>
+        <v>8.1012658227848107</v>
       </c>
       <c r="I2">
-        <v>7.1246819338422389</v>
+        <v>7.0886075949367084</v>
       </c>
       <c r="J2">
-        <v>5.0890585241730282</v>
+        <v>4.556962025316456</v>
       </c>
       <c r="K2">
-        <v>4.325699745547074</v>
+        <v>4.3037974683544302</v>
       </c>
       <c r="L2">
-        <v>3.8167938931297711</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="M2">
-        <v>3.8167938931297711</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="N2">
-        <v>3.8167938931297711</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="O2">
-        <v>3.8167938931297711</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="P2">
-        <v>4.325699745547074</v>
+        <v>4.3037974683544302</v>
       </c>
       <c r="Q2">
-        <v>6.106870229007634</v>
+        <v>6.075949367088608</v>
       </c>
       <c r="R2">
-        <v>7.3791348600508906</v>
+        <v>7.3417721518987342</v>
       </c>
       <c r="S2">
-        <v>7.6335877862595423</v>
+        <v>7.59493670886076</v>
       </c>
       <c r="T2">
-        <v>7.6335877862595423</v>
+        <v>7.8481012658227858</v>
       </c>
       <c r="U2">
-        <v>6.6157760814249365</v>
+        <v>6.5822784810126587</v>
       </c>
       <c r="V2">
-        <v>5.0890585241730282</v>
+        <v>5.0632911392405067</v>
       </c>
       <c r="W2">
-        <v>3.8167938931297711</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="X2">
-        <v>1.5267175572519085</v>
+        <v>1.518987341772152</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0126582278481013</v>
+        <v>1.0230179028132995</v>
       </c>
       <c r="B3">
-        <v>0.759493670886076</v>
+        <v>0.76726342710997453</v>
       </c>
       <c r="C3">
-        <v>0.50632911392405067</v>
+        <v>0.51150895140664976</v>
       </c>
       <c r="D3">
-        <v>0.50632911392405067</v>
+        <v>0.51150895140664976</v>
       </c>
       <c r="E3">
-        <v>0.50632911392405067</v>
+        <v>0.51150895140664976</v>
       </c>
       <c r="F3">
-        <v>2.278481012658228</v>
+        <v>2.3017902813299238</v>
       </c>
       <c r="G3">
-        <v>5.0632911392405067</v>
+        <v>2.5575447570332486</v>
       </c>
       <c r="H3">
-        <v>8.1012658227848107</v>
+        <v>6.3938618925831214</v>
       </c>
       <c r="I3">
-        <v>7.0886075949367084</v>
+        <v>7.1611253196930953</v>
       </c>
       <c r="J3">
-        <v>4.556962025316456</v>
+        <v>7.1611253196930953</v>
       </c>
       <c r="K3">
-        <v>4.3037974683544302</v>
+        <v>5.1150895140664971</v>
       </c>
       <c r="L3">
-        <v>3.79746835443038</v>
+        <v>4.0920716112531981</v>
       </c>
       <c r="M3">
-        <v>3.79746835443038</v>
+        <v>3.8363171355498729</v>
       </c>
       <c r="N3">
-        <v>3.79746835443038</v>
+        <v>3.8363171355498729</v>
       </c>
       <c r="O3">
-        <v>3.79746835443038</v>
+        <v>3.8363171355498729</v>
       </c>
       <c r="P3">
-        <v>4.3037974683544302</v>
+        <v>4.3478260869565224</v>
       </c>
       <c r="Q3">
-        <v>6.075949367088608</v>
+        <v>6.1381074168797962</v>
       </c>
       <c r="R3">
-        <v>7.3417721518987342</v>
+        <v>7.4168797953964205</v>
       </c>
       <c r="S3">
-        <v>7.59493670886076</v>
+        <v>7.6726342710997457</v>
       </c>
       <c r="T3">
-        <v>7.8481012658227858</v>
+        <v>7.6726342710997457</v>
       </c>
       <c r="U3">
-        <v>6.5822784810126587</v>
+        <v>6.6496163682864466</v>
       </c>
       <c r="V3">
-        <v>5.0632911392405067</v>
+        <v>5.1150895140664971</v>
       </c>
       <c r="W3">
-        <v>3.79746835443038</v>
+        <v>3.8363171355498729</v>
       </c>
       <c r="X3">
-        <v>1.518987341772152</v>
+        <v>1.5345268542199491</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.0230179028132995</v>
+        <v>1.5220700152207001</v>
       </c>
       <c r="B4">
-        <v>0.76726342710997453</v>
+        <v>0.76103500761035003</v>
       </c>
       <c r="C4">
-        <v>0.51150895140664976</v>
+        <v>0.45662100456621002</v>
       </c>
       <c r="D4">
-        <v>0.51150895140664976</v>
+        <v>1.2176560121765601</v>
       </c>
       <c r="E4">
-        <v>0.51150895140664976</v>
+        <v>1.2176560121765601</v>
       </c>
       <c r="F4">
-        <v>2.3017902813299238</v>
+        <v>1.5220700152207001</v>
       </c>
       <c r="G4">
-        <v>2.5575447570332486</v>
+        <v>2.7397260273972601</v>
       </c>
       <c r="H4">
-        <v>6.3938618925831214</v>
+        <v>6.3926940639269407</v>
       </c>
       <c r="I4">
-        <v>7.1611253196930953</v>
+        <v>6.0882800608828003</v>
       </c>
       <c r="J4">
-        <v>7.1611253196930953</v>
+        <v>4.4140030441400304</v>
       </c>
       <c r="K4">
-        <v>5.1150895140664971</v>
+        <v>5.0228310502283096</v>
       </c>
       <c r="L4">
-        <v>4.0920716112531981</v>
+        <v>3.6529680365296802</v>
       </c>
       <c r="M4">
-        <v>3.8363171355498729</v>
+        <v>3.5007610350076099</v>
       </c>
       <c r="N4">
-        <v>3.8363171355498729</v>
+        <v>3.8051750380517504</v>
       </c>
       <c r="O4">
-        <v>3.8363171355498729</v>
+        <v>4.71841704718417</v>
       </c>
       <c r="P4">
-        <v>4.3478260869565224</v>
+        <v>4.8706240487062402</v>
       </c>
       <c r="Q4">
-        <v>6.1381074168797962</v>
+        <v>6.8493150684931505</v>
       </c>
       <c r="R4">
-        <v>7.4168797953964205</v>
+        <v>7.153729071537291</v>
       </c>
       <c r="S4">
-        <v>7.6726342710997457</v>
+        <v>7.153729071537291</v>
       </c>
       <c r="T4">
-        <v>7.6726342710997457</v>
+        <v>7.4581430745814306</v>
       </c>
       <c r="U4">
-        <v>6.6496163682864466</v>
+        <v>7.3059360730593603</v>
       </c>
       <c r="V4">
-        <v>5.1150895140664971</v>
+        <v>5.93607305936073</v>
       </c>
       <c r="W4">
-        <v>3.8363171355498729</v>
+        <v>4.4140030441400304</v>
       </c>
       <c r="X4">
-        <v>1.5345268542199491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.5220700152207001</v>
-      </c>
-      <c r="B5">
-        <v>0.76103500761035003</v>
-      </c>
-      <c r="C5">
-        <v>0.45662100456621002</v>
-      </c>
-      <c r="D5">
-        <v>1.2176560121765601</v>
-      </c>
-      <c r="E5">
-        <v>1.2176560121765601</v>
-      </c>
-      <c r="F5">
-        <v>1.5220700152207001</v>
-      </c>
-      <c r="G5">
-        <v>2.7397260273972601</v>
-      </c>
-      <c r="H5">
-        <v>6.3926940639269407</v>
-      </c>
-      <c r="I5">
-        <v>6.0882800608828003</v>
-      </c>
-      <c r="J5">
-        <v>4.4140030441400304</v>
-      </c>
-      <c r="K5">
-        <v>5.0228310502283096</v>
-      </c>
-      <c r="L5">
-        <v>3.6529680365296802</v>
-      </c>
-      <c r="M5">
-        <v>3.5007610350076099</v>
-      </c>
-      <c r="N5">
-        <v>3.8051750380517504</v>
-      </c>
-      <c r="O5">
-        <v>4.71841704718417</v>
-      </c>
-      <c r="P5">
-        <v>4.8706240487062402</v>
-      </c>
-      <c r="Q5">
-        <v>6.8493150684931505</v>
-      </c>
-      <c r="R5">
-        <v>7.153729071537291</v>
-      </c>
-      <c r="S5">
-        <v>7.153729071537291</v>
-      </c>
-      <c r="T5">
-        <v>7.4581430745814306</v>
-      </c>
-      <c r="U5">
-        <v>7.3059360730593603</v>
-      </c>
-      <c r="V5">
-        <v>5.93607305936073</v>
-      </c>
-      <c r="W5">
-        <v>4.4140030441400304</v>
-      </c>
-      <c r="X5">
         <v>1.8264840182648401</v>
       </c>
     </row>
